--- a/Openmrs/Testdata.xlsx
+++ b/Openmrs/Testdata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13605" windowHeight="2430"/>
+    <workbookView windowWidth="15390" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A1:F3"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>12, April, 1993</t>
+    <t>12, January, 1993</t>
   </si>
   <si>
     <t>SSS, DDD, FFF, GGG, HHH, 12345.0</t>
@@ -53,7 +53,7 @@
     <t>QQQ, VVV</t>
   </si>
   <si>
-    <t>21, April, 2001</t>
+    <t>21, October, 2001</t>
   </si>
   <si>
     <t>ZZZ, XXX, CCC, VVV, BBB, 67890.0</t>
@@ -67,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,29 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,21 +89,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +118,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -151,28 +128,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +142,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,22 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -217,9 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,19 +234,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,19 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,139 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,21 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -476,22 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +491,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -525,153 +514,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,17 +1001,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="24.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
+    <col min="2" max="3" width="18.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="35.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
